--- a/biology/Botanique/Histologie_végétale/Histologie_végétale.xlsx
+++ b/biology/Botanique/Histologie_végétale/Histologie_végétale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histologie_v%C3%A9g%C3%A9tale</t>
+          <t>Histologie_végétale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histologie végétale est la partie de la biologie végétale qui étudie la structure microscopique des tissus végétaux.
 Cette science s'est constituée au XIXe siècle, avec le perfectionnement du microscope. Elle s'appuie sur la cytologie, qui est l'étude de la cellule vivante.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histologie_v%C3%A9g%C3%A9tale</t>
+          <t>Histologie_végétale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Tissus végétaux de protection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épiderme est un tissu primaire constitué d'une assise de cellules vivantes jointives, parfois recouvertes de cuticule. L'épiderme a un rôle de protection et d'échange grâce aux stomates.
 Le suber est un ensemble de cellules mortes imperméables car contenant de la subérine. Le suber ou liège est un tissu d'origine secondaire ; il provient de la différenciation de cellules méristématiques issues du fonctionnement d'un méristème secondaire, l'assise subérophellodermique ou phellogène. Il a un rôle de protection. Les cellules étant imperméables, toutes les cellules situées à l'extérieur du suber sont vouées à mourir. Ces cellules mortes desquamantes constituent le rhytidome chez les plantes ligneuses, ou plus simplement l'écorce des arbres.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Histologie_v%C3%A9g%C3%A9tale</t>
+          <t>Histologie_végétale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Tissus fondamentaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parenchyme, tissu souvent le plus abondant, est constitué de cellules de forme globulaire. Le parenchyme présente des spécialisations en relation avec sa position. On a ainsi des parenchymes chlorophylliens, sièges de la photosynthèse ; des parenchymes de réserve qu'on trouve souvent dans les organes souterrains. Avec ses cellules vivantes au contenu cellulaire riche, le parenchyme participe surtout aux fonctions de nutrition.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Histologie_v%C3%A9g%C3%A9tale</t>
+          <t>Histologie_végétale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Tissus de soutien</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le collenchyme est un tissu primaire constitué de cellules vivantes à paroi épaisse pectocellulosique importante. Les cellules du collenchyme sont souvent allongées et étroitement accolées les unes aux autres. Le collenchyme occupe généralement des positions externes, et joue surtout un rôle de soutien.
 Le sclérenchyme est un tissu primaire. C'est l'ensemble des cellules mortes à paroi épaisse, imprégnées de lignine et présentes sous forme de fibres. Le sclérenchyme se trouve généralement plus en profondeur que le collenchyme.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Histologie_v%C3%A9g%C3%A9tale</t>
+          <t>Histologie_végétale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Tissus conducteurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les tissus conducteurs des Angiospermes sont le xylème et le phloème. Le xylème conduit la sève brute, le phloème la sève élaborée.
 Le xylème se compose :
